--- a/UZr/melting_point.xlsx
+++ b/UZr/melting_point.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/UZr/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/UZr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34024013-77D9-2343-A3F5-F55EAAA70E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93773494-B090-7C4C-9C49-9CF031AFC051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21360" yWindow="7600" windowWidth="27640" windowHeight="16940" xr2:uid="{523C0DC0-6D6C-8449-BFBC-CC87E90AB8E5}"/>
+    <workbookView xWindow="15880" yWindow="4300" windowWidth="24080" windowHeight="16940" xr2:uid="{523C0DC0-6D6C-8449-BFBC-CC87E90AB8E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>U-Zr melting point</t>
   </si>
@@ -45,6 +45,39 @@
   </si>
   <si>
     <t>liquidus</t>
+  </si>
+  <si>
+    <t>kinda wants to melt on its own??</t>
+  </si>
+  <si>
+    <t>solidus</t>
+  </si>
+  <si>
+    <t>from metal fuels handbook</t>
+  </si>
+  <si>
+    <t>at% Zr</t>
+  </si>
+  <si>
+    <t>Solidus</t>
+  </si>
+  <si>
+    <t>Liquidus</t>
+  </si>
+  <si>
+    <t>u50zr</t>
+  </si>
+  <si>
+    <t>all liquid</t>
+  </si>
+  <si>
+    <t>all solid</t>
+  </si>
+  <si>
+    <t>liquidus with MC</t>
+  </si>
+  <si>
+    <t>co-exist</t>
   </si>
 </sst>
 </file>
@@ -211,7 +244,7 @@
                   <c:v>1565</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2025</c:v>
+                  <c:v>2035</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>2135</c:v>
@@ -223,6 +256,334 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CCFE-7445-BCEC-EF4DDB45B903}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$19:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.22500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.29899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.39900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.59899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.745</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.82899999999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.84899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.89900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.94899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$19:$C$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1408</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1411</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1413</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1418</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1452</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1441</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1468</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1521</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1576</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1659</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1744</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1832</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1937</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1956</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2067</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2084</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3252-DA4A-830B-E2E9F9F076EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$19:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.22500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.29899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.39900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.59899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.745</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.82899999999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.84899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.89900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.94899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$19:$D$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1408</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1429</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1465</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1525</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1628</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1690</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1776</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1843</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1914</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2060</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2088</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2109</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3252-DA4A-830B-E2E9F9F076EB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -304,7 +665,7 @@
         <c:axId val="1083699424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="1000"/>
+          <c:min val="1200"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -982,9 +1343,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1329,28 +1690,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D7C479-9A69-4040-A113-5CA53DBE08FB}">
-  <dimension ref="B2:C13"/>
+  <dimension ref="B2:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>0</v>
       </c>
@@ -1359,19 +1723,19 @@
         <v>1317.5</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>0.1</v>
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>0.15</v>
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>0.23</v>
       </c>
@@ -1379,44 +1743,331 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>0.3</v>
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>0.4</v>
       </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>0.5</v>
       </c>
-      <c r="C10" s="1">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C10" s="2">
+        <v>2035</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>0.6</v>
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>0.8</v>
       </c>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" s="2">
         <v>2135</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>1408</v>
+      </c>
+      <c r="D19">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C20">
+        <v>1411</v>
+      </c>
+      <c r="D20">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C21">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="C22">
+        <v>1418</v>
+      </c>
+      <c r="D22">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="C23">
+        <v>1452</v>
+      </c>
+      <c r="D23">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="C24">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="C25">
+        <v>1468</v>
+      </c>
+      <c r="D25">
+        <v>1550</v>
+      </c>
+      <c r="H25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C26">
+        <v>1521</v>
+      </c>
+      <c r="D26">
+        <v>1628</v>
+      </c>
+      <c r="I26" t="s">
+        <v>4</v>
+      </c>
+      <c r="K26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="C27">
+        <v>1576</v>
+      </c>
+      <c r="D27">
+        <v>1690</v>
+      </c>
+      <c r="H27">
+        <v>2200</v>
+      </c>
+      <c r="I27" t="s">
+        <v>10</v>
+      </c>
+      <c r="J27">
+        <v>2000</v>
+      </c>
+      <c r="K27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="C28">
+        <v>1659</v>
+      </c>
+      <c r="D28">
+        <v>1776</v>
+      </c>
+      <c r="H28">
+        <v>2100</v>
+      </c>
+      <c r="I28" t="s">
+        <v>11</v>
+      </c>
+      <c r="J28">
+        <v>2040</v>
+      </c>
+      <c r="K28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>0.5</v>
+      </c>
+      <c r="C29">
+        <v>1744</v>
+      </c>
+      <c r="D29">
+        <v>1843</v>
+      </c>
+      <c r="H29">
+        <v>2150</v>
+      </c>
+      <c r="I29" t="s">
+        <v>11</v>
+      </c>
+      <c r="J29">
+        <v>2100</v>
+      </c>
+      <c r="K29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="C30">
+        <v>1832</v>
+      </c>
+      <c r="D30">
+        <v>1914</v>
+      </c>
+      <c r="H30">
+        <v>2160</v>
+      </c>
+      <c r="J30">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>0.69</v>
+      </c>
+      <c r="C31">
+        <v>1900</v>
+      </c>
+      <c r="D31">
+        <v>1975</v>
+      </c>
+      <c r="H31">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>0.745</v>
+      </c>
+      <c r="C32">
+        <v>1937</v>
+      </c>
+      <c r="H32">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>0.75</v>
+      </c>
+      <c r="C33">
+        <v>1956</v>
+      </c>
+      <c r="D33">
+        <v>2003</v>
+      </c>
+      <c r="H33">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="C34">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="C35">
+        <v>2031</v>
+      </c>
+      <c r="D35">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="C36">
+        <v>2067</v>
+      </c>
+      <c r="D36">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="C37">
+        <v>2084</v>
+      </c>
+      <c r="D37">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>2128</v>
+      </c>
+      <c r="D38">
+        <v>2128</v>
       </c>
     </row>
   </sheetData>

--- a/UZr/melting_point.xlsx
+++ b/UZr/melting_point.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/UZr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93773494-B090-7C4C-9C49-9CF031AFC051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1B9806-E523-E949-AA4B-4490C57DC119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15880" yWindow="4300" windowWidth="24080" windowHeight="16940" xr2:uid="{523C0DC0-6D6C-8449-BFBC-CC87E90AB8E5}"/>
   </bookViews>
@@ -1693,7 +1693,7 @@
   <dimension ref="B2:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1992,6 +1992,9 @@
       <c r="H31">
         <v>2170</v>
       </c>
+      <c r="J31">
+        <v>2150</v>
+      </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32">

--- a/UZr/melting_point.xlsx
+++ b/UZr/melting_point.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/UZr/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/UZr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1B9806-E523-E949-AA4B-4490C57DC119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1586EC96-59E5-5447-BDC7-F9C6F72E78A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15880" yWindow="4300" windowWidth="24080" windowHeight="16940" xr2:uid="{523C0DC0-6D6C-8449-BFBC-CC87E90AB8E5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>U-Zr melting point</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>co-exist</t>
+  </si>
+  <si>
+    <t>co-exist, but weird</t>
   </si>
 </sst>
 </file>
@@ -1693,7 +1696,7 @@
   <dimension ref="B2:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1975,8 +1978,14 @@
       <c r="H30">
         <v>2160</v>
       </c>
+      <c r="I30" t="s">
+        <v>13</v>
+      </c>
       <c r="J30">
         <v>2200</v>
+      </c>
+      <c r="K30" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.2">
@@ -1992,8 +2001,14 @@
       <c r="H31">
         <v>2170</v>
       </c>
+      <c r="I31" t="s">
+        <v>11</v>
+      </c>
       <c r="J31">
         <v>2150</v>
+      </c>
+      <c r="K31" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.2">
@@ -2006,8 +2021,14 @@
       <c r="H32">
         <v>2180</v>
       </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>0.75</v>
       </c>
@@ -2020,8 +2041,11 @@
       <c r="H33">
         <v>2190</v>
       </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>0.82899999999999996</v>
       </c>
@@ -2029,7 +2053,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>0.84899999999999998</v>
       </c>
@@ -2040,7 +2064,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>0.89900000000000002</v>
       </c>
@@ -2051,7 +2075,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>0.94899999999999995</v>
       </c>
@@ -2062,7 +2086,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>1</v>
       </c>
